--- a/src/files/plantillas/campañaIntesamente.xlsx
+++ b/src/files/plantillas/campañaIntesamente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAGGAAC-SOPORTE\Documents\GitHub\api-whatsapp-ts-main\src\files\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3CC80C-5F53-45FC-9251-4E186C22718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0BED3-5371-4BB4-A17D-E8EC8FDDF0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DDC511B6-D51C-4D4E-9462-F9681B7CA74C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tipo</t>
   </si>
@@ -39,58 +39,20 @@
     <t>Texto</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Archivo</t>
-  </si>
-  <si>
-    <t>./src/images/Emociones.jpg</t>
-  </si>
-  <si>
-    <t>𝔸𝕢𝕦𝕚 👆🏻𝕦𝕟𝕠 𝕕𝕖 𝕟𝕦𝕖𝕤𝕥𝕣𝕠𝕤 𝕤𝕖𝕣𝕧𝕚𝕔𝕚𝕠𝕤 𝕖𝕤𝕥𝕣𝕖𝕝𝕝𝕒 💫</t>
-  </si>
-  <si>
-    <t>./src/videos/VideoSagga.mp4</t>
-  </si>
-  <si>
-    <t>El video es este</t>
-  </si>
-  <si>
-    <t>./src/files/SAGGA_IngenieriaRendimiento.pdf</t>
-  </si>
-  <si>
-    <t>SAGGA_IngenieriaRendimiento</t>
-  </si>
-  <si>
     <t>NombreArchivo</t>
   </si>
   <si>
-    <t>ℍ𝕠𝕝𝕒 👋 ${name}</t>
+    <t>ℍ𝕠𝕝𝕒 👋 ${name} ${phone} ${lastname}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,14 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,16 +394,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F23900-D3C6-418E-A625-68F9A5B819E0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
@@ -463,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,40 +427,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
